--- a/AcceptanceTests/Test 2.xlsx
+++ b/AcceptanceTests/Test 2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="624">
   <si>
     <t>128,224,28,128,6,80,33,216,98,169,33,237,0</t>
   </si>
@@ -1834,90 +1834,27 @@
     <t>240,128,96,126,192,6,16,34,216,22,193,15</t>
   </si>
   <si>
-    <t>240,128,67</t>
-  </si>
-  <si>
-    <t>240,128,224,27,0,7,240,32,216,232,184,15</t>
-  </si>
-  <si>
-    <t>240,128,224,27,192,6,48,33,216,36,185,15</t>
-  </si>
-  <si>
-    <t>240,128,224,27,128,6,112,33,216,96,185,15</t>
-  </si>
-  <si>
-    <t>240,128,224,28,128,6,208,33,216,90,169,15</t>
-  </si>
-  <si>
     <t>240,128,224,27,192,6,80,33,216,34,185,15</t>
   </si>
   <si>
-    <t>240,128,96,28,128,6,208,33,216,90,29,15</t>
-  </si>
-  <si>
-    <t>240,128,224,28,64,6,208,33,216,154,169,15</t>
-  </si>
-  <si>
-    <t>240,128,224,28,64,6,176,33,216,99,169,15</t>
-  </si>
-  <si>
     <t>240,128,96,28,128,6,208,33,216,90,177,15</t>
   </si>
   <si>
-    <t>240,128,224,28,128,6,176,33,216,92,169,15</t>
-  </si>
-  <si>
     <t>240,128,224,28,128,6,240,33,216,88,169,15</t>
   </si>
   <si>
-    <t>240,128,224,28,64,6,176,33,216,156,169,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,192,118,176,33,216,28,177,15</t>
-  </si>
-  <si>
-    <t>240,128,224,29,64,6,144,33,216,158,153,15</t>
-  </si>
-  <si>
     <t>240,128,96,29,64,6,80,34,216,146,161,15</t>
   </si>
   <si>
     <t>240,128,96,28,128,6,176,34,216,76,177,15</t>
   </si>
   <si>
-    <t>240,128,96,28,128,6,144,34,216,78,177,15</t>
-  </si>
-  <si>
     <t>240,128,96,28,192,6,80,34,216,18,177,15</t>
   </si>
   <si>
-    <t>240,128,96,29,64,6,48,77,216,148,161,15</t>
-  </si>
-  <si>
-    <t>240,128,96,29,64,6,80,18,216,146,161,15</t>
-  </si>
-  <si>
-    <t>240,128,96,27,192,6,208,33,216,26,193,15</t>
-  </si>
-  <si>
-    <t>240,128,224,27,0,7,80,34,216,210,184,15</t>
-  </si>
-  <si>
     <t>240,128,96,28,192,6,48,34,216,20,177,15</t>
   </si>
   <si>
-    <t>240,128,107</t>
-  </si>
-  <si>
-    <t>240,128,96,28,67,6,144,33,216,94,177,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,192,6,144,33,216,10,177,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,8,6,176,33,216,28,177,15</t>
-  </si>
-  <si>
     <t>240,128,115</t>
   </si>
   <si>
@@ -1927,30 +1864,6 @@
     <t>240,128,96,28,192,6,0,33,216,28,177,15</t>
   </si>
   <si>
-    <t>240,128,96,27,0,7,240,33,216,216,192,15</t>
-  </si>
-  <si>
-    <t>240,128,224,28,64,6,16,34,216,150,169,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,107,6,80,34,216,18,177,15</t>
-  </si>
-  <si>
-    <t>240,128,224,27,192,6,112,34,216,16,185,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,128,6,48,34,216,50,177,15</t>
-  </si>
-  <si>
-    <t>240,128,96,27,48,6,16,34,216,22,193,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,128,6,144,33,216,121,177,15</t>
-  </si>
-  <si>
-    <t>240,128,96,27,192,6,48,34,216,20,193,15</t>
-  </si>
-  <si>
     <t>240,128,96,28,128,6,112,34,216,80,177,15</t>
   </si>
   <si>
@@ -1960,63 +1873,12 @@
     <t>240,128,96,29,64,6,40,34,216,148,161,15</t>
   </si>
   <si>
-    <t>240,128,96,27,192,6,16,34,216,22,193,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,192,6,176,33,216,32,177,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,88,6,144,33,216,94,177,15</t>
-  </si>
-  <si>
     <t>240,128,96,27,0,7,48,33,216,228,192,15</t>
   </si>
   <si>
-    <t>240,128,224,28,64,6,48,33,216,164,169,15</t>
-  </si>
-  <si>
-    <t>240,128,224,28,128,6,80,33,216,94,169,15</t>
-  </si>
-  <si>
-    <t>240,128,224,28,128,6,240,32,216,104,169,15</t>
-  </si>
-  <si>
-    <t>240,128,96,29,128,6,48,34,216,148,161,15</t>
-  </si>
-  <si>
-    <t>240,128,224,28,64,6,16,34,216,72,169,15</t>
-  </si>
-  <si>
-    <t>240,128,96,69,128,6,208,33,216,90,177,15</t>
-  </si>
-  <si>
-    <t>240,128,96,29,64,6,144,34,216,142,161,15</t>
-  </si>
-  <si>
-    <t>240,128,224,28,64,6,112,33,216,160,169,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,128,6,208,33,216,90,101,15</t>
-  </si>
-  <si>
-    <t>240,128,96,28,192,6,61,34,216,20,177,15</t>
-  </si>
-  <si>
     <t>Foul</t>
   </si>
   <si>
-    <t>240,128,67,28,128,6,80,33,216,98,169,15</t>
-  </si>
-  <si>
-    <t>45,128,96,28,192,6,176,33,216,28,177,15</t>
-  </si>
-  <si>
-    <t>116,128,224,27,192,6,80,33,216,34,185,15,</t>
-  </si>
-  <si>
-    <t>240,128,107,29,64,6,80,34,216,146,161,15</t>
-  </si>
-  <si>
     <t>26,128,96,28,192,6,48,34,216,20,177,15</t>
   </si>
   <si>
@@ -2026,13 +1888,16 @@
     <t>240,96,96,28,64,6,48,34,216,148,177,15</t>
   </si>
   <si>
-    <t>240,7,224,28,128,6,176,33,216,92,169,15</t>
-  </si>
-  <si>
-    <t>240,78,224,28,128,6,176,33,216,92,169,15</t>
-  </si>
-  <si>
-    <t>240,118,96,28,192,6,48,34,216,20,177,15</t>
+    <t>240,128,96,28,192,6,33,216,30,177,15</t>
+  </si>
+  <si>
+    <t>240,128,96,28,192,6,33,216,30,177,15,240</t>
+  </si>
+  <si>
+    <t>240,128,96,28,128,6,208,63,33,216,90,177,15</t>
+  </si>
+  <si>
+    <t>240,128,96,28,128,6,208,63,33,216,90,177</t>
   </si>
 </sst>
 </file>
@@ -2088,6 +1953,1418 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resultat!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Foul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Resultat!$L$2:$L$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Resultat!$M$2:$M$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="81441992"/>
+        <c:axId val="81688448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81441992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81688448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81688448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81441992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2353,10 +3630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L374"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,18 +3641,18 @@
     <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="L1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>589</v>
       </c>
@@ -2383,10 +3660,13 @@
         <v>589</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>590</v>
       </c>
@@ -2394,10 +3674,13 @@
         <v>590</v>
       </c>
       <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>591</v>
       </c>
@@ -2405,10 +3688,13 @@
         <v>591</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>592</v>
       </c>
@@ -2418,8 +3704,11 @@
       <c r="L5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>593</v>
       </c>
@@ -2427,10 +3716,13 @@
         <v>593</v>
       </c>
       <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>594</v>
       </c>
@@ -2438,10 +3730,13 @@
         <v>594</v>
       </c>
       <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>595</v>
       </c>
@@ -2449,10 +3744,13 @@
         <v>595</v>
       </c>
       <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>596</v>
       </c>
@@ -2460,10 +3758,13 @@
         <v>596</v>
       </c>
       <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>597</v>
       </c>
@@ -2471,214 +3772,265 @@
         <v>597</v>
       </c>
       <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>598</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>590</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>128</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>96</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>144</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>33</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>216</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>222</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>192</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>15</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>596</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="L13">
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>596</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="L14">
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>599</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="L15">
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>600</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="L16">
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>601</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="L17">
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>598</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L18">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>607</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>598</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L19">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>593</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>659</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="1">
-        <v>28</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="1">
-        <v>128</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="1">
-        <v>6</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="1">
-        <v>80</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="1">
-        <v>33</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G26" s="1">
-        <v>216</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="1">
-        <v>98</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="1">
-        <v>169</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="1">
-        <v>15</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>603</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="L30">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>607</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>598</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>604</v>
       </c>
@@ -2686,3500 +4038,748 @@
         <v>604</v>
       </c>
       <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>617</v>
+      </c>
+      <c r="G33" s="1">
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>128</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>96</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <v>28</v>
+      </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>192</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>48</v>
+      </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>34</v>
+      </c>
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>216</v>
+      </c>
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>177</v>
+      </c>
+      <c r="L43">
+        <v>41</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>15</v>
+      </c>
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>599</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>591</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="L46">
+        <v>44</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>603</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="L47">
+        <v>45</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>600</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L48">
+        <v>46</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>606</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="L49">
+        <v>47</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>600</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>622</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L51">
+        <v>49</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>15</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>596</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="L53">
+        <v>51</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>598</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>591</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="L55">
+        <v>53</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>598</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L56">
+        <v>54</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>596</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="L57">
+        <v>55</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>618</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L58">
+        <v>56</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>28</v>
+      </c>
+      <c r="L59">
+        <v>57</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>128</v>
+      </c>
+      <c r="L60">
+        <v>58</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>59</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <v>208</v>
+      </c>
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <v>33</v>
+      </c>
+      <c r="L63">
+        <v>61</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>216</v>
+      </c>
+      <c r="L64">
+        <v>62</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>90</v>
+      </c>
+      <c r="L65">
+        <v>63</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <v>177</v>
+      </c>
+      <c r="L66">
+        <v>64</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>15</v>
+      </c>
+      <c r="L67">
+        <v>65</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>590</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="L68">
+        <v>66</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>610</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="L69">
+        <v>67</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>599</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="L70">
+        <v>68</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>602</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="L71">
+        <v>69</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>611</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="L72">
+        <v>70</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>608</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="L73">
+        <v>71</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>605</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="L33">
+      <c r="L74">
+        <v>72</v>
+      </c>
+      <c r="M74">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>612</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="L75">
+        <v>73</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>613</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="L76">
+        <v>74</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>619</v>
+      </c>
+      <c r="G77" s="1">
+        <v>240.96</v>
+      </c>
+      <c r="L77">
+        <v>75</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <v>96</v>
+      </c>
+      <c r="L78">
+        <v>76</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G79" s="1">
+        <v>28</v>
+      </c>
+      <c r="L79">
+        <v>77</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G80" s="1">
+        <v>64</v>
+      </c>
+      <c r="L80">
+        <v>78</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>6</v>
+      </c>
+      <c r="L81">
+        <v>79</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <v>48</v>
+      </c>
+      <c r="L82">
+        <v>80</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <v>34</v>
+      </c>
+      <c r="L83">
+        <v>81</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>216</v>
+      </c>
+      <c r="L84">
+        <v>82</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>148</v>
+      </c>
+      <c r="L85">
+        <v>83</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <v>177</v>
+      </c>
+      <c r="L86">
+        <v>84</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G87" s="1">
+        <v>15</v>
+      </c>
+      <c r="L87">
+        <v>85</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>591</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="L34">
+      <c r="L88">
+        <v>86</v>
+      </c>
+      <c r="M88">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>606</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="L35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>614</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="L89">
+        <v>87</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>615</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="L90">
+        <v>88</v>
+      </c>
+      <c r="M90">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>596</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L36">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>593</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L91">
+        <v>89</v>
+      </c>
+      <c r="M91">
         <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>600</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>607</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>600</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>600</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>608</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="L41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>609</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>609</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>610</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="L44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>596</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>609</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>611</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>612</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>613</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>614</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>660</v>
-      </c>
-      <c r="G51" s="1">
-        <v>45</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G52" s="1">
-        <v>128</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G53" s="1">
-        <v>96</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G54" s="1">
-        <v>28</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G55" s="1">
-        <v>192</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G56" s="1">
-        <v>6</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G57" s="1">
-        <v>176</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G58" s="1">
-        <v>33</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G59" s="1">
-        <v>216</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G60" s="1">
-        <v>28</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G61" s="1">
-        <v>177</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G62" s="1">
-        <v>15</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>616</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>615</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>661</v>
-      </c>
-      <c r="G65" s="1">
-        <v>116</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G66" s="1">
-        <v>128</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G67" s="1">
-        <v>224</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G68" s="1">
-        <v>27</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G69" s="1">
-        <v>192</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G70" s="1">
-        <v>6</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G71" s="1">
-        <v>80</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G72" s="1">
-        <v>33</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G73" s="1">
-        <v>216</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G74" s="1">
-        <v>34</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G75" s="1">
-        <v>185</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G76" s="1">
-        <v>15</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>590</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>611</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>597</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>600</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>593</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>617</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>593</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>618</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>619</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>617</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>620</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>621</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="L88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>591</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>620</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>622</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="L91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>593</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>617</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>600</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>623</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>624</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>594</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>617</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>617</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>599</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>599</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>625</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>662</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="L103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G104" s="1">
-        <v>29</v>
-      </c>
-      <c r="L104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G105" s="1">
-        <v>64</v>
-      </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G106" s="1">
-        <v>6</v>
-      </c>
-      <c r="L106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G107" s="1">
-        <v>80</v>
-      </c>
-      <c r="L107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G108" s="1">
-        <v>34</v>
-      </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G109" s="1">
-        <v>216</v>
-      </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G110" s="1">
-        <v>146</v>
-      </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G111" s="1">
-        <v>161</v>
-      </c>
-      <c r="L111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G112" s="1">
-        <v>15</v>
-      </c>
-      <c r="L112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>620</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>620</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>619</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>593</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>600</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>623</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>600</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>600</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>596</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>596</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>611</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>600</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>627</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="L125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>605</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>628</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="L127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>629</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="L128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>600</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>607</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>600</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>607</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>620</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>593</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>620</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>613</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>663</v>
-      </c>
-      <c r="G137" s="1">
-        <v>26</v>
-      </c>
-      <c r="L137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G138" s="1">
-        <v>128</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G139" s="1">
-        <v>96</v>
-      </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G140" s="1">
-        <v>28</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G141" s="1">
-        <v>192</v>
-      </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G142" s="1">
-        <v>6</v>
-      </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G143" s="1">
-        <v>48</v>
-      </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G144" s="1">
-        <v>34</v>
-      </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G145" s="1">
-        <v>216</v>
-      </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G146" s="1">
-        <v>20</v>
-      </c>
-      <c r="L146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G147" s="1">
-        <v>177</v>
-      </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G148" s="1">
-        <v>15</v>
-      </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>599</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>591</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>611</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>600</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>618</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>600</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>611</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>596</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>598</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>591</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>598</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>596</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>664</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="L161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G162" s="1">
-        <v>28</v>
-      </c>
-      <c r="L162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G163" s="1">
-        <v>128</v>
-      </c>
-      <c r="L163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G164" s="1">
-        <v>6</v>
-      </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G165" s="1">
-        <v>208</v>
-      </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G166" s="1">
-        <v>33</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G167" s="1">
-        <v>216</v>
-      </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G168" s="1">
-        <v>90</v>
-      </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G169" s="1">
-        <v>177</v>
-      </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G170" s="1">
-        <v>15</v>
-      </c>
-      <c r="L170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>590</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>631</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="L172">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>599</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>607</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>632</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="L175">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>625</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>600</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>593</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>593</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>599</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>600</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>623</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>633</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>590</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>623</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>605</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>600</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>623</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>623</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>611</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>600</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>623</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>604</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>634</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>617</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>617</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>635</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="L197">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>636</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>637</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="L199">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>638</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="L200">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>599</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>639</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="L202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>612</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="L203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>590</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>590</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>590</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>611</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>599</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>596</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>625</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>617</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>611</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>614</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="L213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>590</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>611</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>591</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>599</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>599</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>600</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>611</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>640</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="L221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>617</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>641</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="L223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>642</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="L224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>665</v>
-      </c>
-      <c r="G225" s="1">
-        <v>240.96</v>
-      </c>
-      <c r="L225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G226" s="1">
-        <v>96</v>
-      </c>
-      <c r="L226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G227" s="1">
-        <v>28</v>
-      </c>
-      <c r="L227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G228" s="1">
-        <v>64</v>
-      </c>
-      <c r="L228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G229" s="1">
-        <v>6</v>
-      </c>
-      <c r="L229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G230" s="1">
-        <v>48</v>
-      </c>
-      <c r="L230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G231" s="1">
-        <v>34</v>
-      </c>
-      <c r="L231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G232" s="1">
-        <v>216</v>
-      </c>
-      <c r="L232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G233" s="1">
-        <v>148</v>
-      </c>
-      <c r="L233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G234" s="1">
-        <v>177</v>
-      </c>
-      <c r="L234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G235" s="1">
-        <v>15</v>
-      </c>
-      <c r="L235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>591</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>643</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="L237">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>617</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>589</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="L239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>617</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>617</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>597</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="L242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>617</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>634</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="L244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>634</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="L245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>600</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>600</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>644</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="L248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>599</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>589</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="L250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>596</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>590</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>611</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>625</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>605</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="L255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>590</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>611</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>623</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>609</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>609</v>
-      </c>
-      <c r="G260" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>590</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>646</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="L262">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>607</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="L263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>645</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="L264">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>591</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>596</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>647</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="L267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>593</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>593</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>593</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>625</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>625</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>623</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>625</v>
-      </c>
-      <c r="G274" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>590</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>611</v>
-      </c>
-      <c r="G276" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>623</v>
-      </c>
-      <c r="G277" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>590</v>
-      </c>
-      <c r="G278" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>605</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="L279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>600</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>590</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>590</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>591</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>614</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="L284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>604</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="L285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>590</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>666</v>
-      </c>
-      <c r="G287" s="1">
-        <v>240.7</v>
-      </c>
-      <c r="L287">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G288" s="1">
-        <v>224</v>
-      </c>
-      <c r="L288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G289" s="1">
-        <v>28</v>
-      </c>
-      <c r="L289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G290" s="1">
-        <v>128</v>
-      </c>
-      <c r="L290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G291" s="1">
-        <v>6</v>
-      </c>
-      <c r="L291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G292" s="1">
-        <v>176</v>
-      </c>
-      <c r="L292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G293" s="1">
-        <v>33</v>
-      </c>
-      <c r="L293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G294" s="1">
-        <v>216</v>
-      </c>
-      <c r="L294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G295" s="1">
-        <v>92</v>
-      </c>
-      <c r="L295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G296" s="1">
-        <v>169</v>
-      </c>
-      <c r="L296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G297" s="1">
-        <v>15</v>
-      </c>
-      <c r="L297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>648</v>
-      </c>
-      <c r="G298" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="L298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>649</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="L299">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>667</v>
-      </c>
-      <c r="G300" s="1">
-        <v>240.78</v>
-      </c>
-      <c r="L300">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G301" s="1">
-        <v>224</v>
-      </c>
-      <c r="L301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G302" s="1">
-        <v>28</v>
-      </c>
-      <c r="L302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G303" s="1">
-        <v>128</v>
-      </c>
-      <c r="L303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G304" s="1">
-        <v>6</v>
-      </c>
-      <c r="L304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G305" s="1">
-        <v>176</v>
-      </c>
-      <c r="L305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G306" s="1">
-        <v>33</v>
-      </c>
-      <c r="L306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G307" s="1">
-        <v>216</v>
-      </c>
-      <c r="L307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G308" s="1">
-        <v>92</v>
-      </c>
-      <c r="L308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G309" s="1">
-        <v>169</v>
-      </c>
-      <c r="L309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G310" s="1">
-        <v>15</v>
-      </c>
-      <c r="L310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>650</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="L311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>605</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="L312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>589</v>
-      </c>
-      <c r="G313" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="L313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>594</v>
-      </c>
-      <c r="G314" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="L314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>590</v>
-      </c>
-      <c r="G315" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>611</v>
-      </c>
-      <c r="G316" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>614</v>
-      </c>
-      <c r="G317" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="L317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>613</v>
-      </c>
-      <c r="G318" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>634</v>
-      </c>
-      <c r="G319" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="L319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>612</v>
-      </c>
-      <c r="G320" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="L320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>599</v>
-      </c>
-      <c r="G321" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>599</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>617</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>634</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="L324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>612</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="L325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>611</v>
-      </c>
-      <c r="G326" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>612</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="L327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>613</v>
-      </c>
-      <c r="G328" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>611</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>611</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>613</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>611</v>
-      </c>
-      <c r="G332" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>611</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>651</v>
-      </c>
-      <c r="G334" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="L334">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>613</v>
-      </c>
-      <c r="G335" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>652</v>
-      </c>
-      <c r="G336" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="L336">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>653</v>
-      </c>
-      <c r="G337" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="L337">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>620</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="L338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>654</v>
-      </c>
-      <c r="G339" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>617</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>641</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="L341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>593</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>655</v>
-      </c>
-      <c r="G343" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="L343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>597</v>
-      </c>
-      <c r="G344" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="L344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>617</v>
-      </c>
-      <c r="G345" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>634</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="L346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>625</v>
-      </c>
-      <c r="G347" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>617</v>
-      </c>
-      <c r="G348" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>593</v>
-      </c>
-      <c r="G349" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>614</v>
-      </c>
-      <c r="G350" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="L350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>596</v>
-      </c>
-      <c r="G351" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>656</v>
-      </c>
-      <c r="G352" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="L352">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>598</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>591</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>591</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>604</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="L356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>598</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>590</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>591</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>604</v>
-      </c>
-      <c r="G360" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="L360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>598</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>668</v>
-      </c>
-      <c r="G362" s="1">
-        <v>240.11799999999999</v>
-      </c>
-      <c r="L362">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G363" s="1">
-        <v>96</v>
-      </c>
-      <c r="L363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G364" s="1">
-        <v>28</v>
-      </c>
-      <c r="L364">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G365" s="1">
-        <v>192</v>
-      </c>
-      <c r="L365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G366" s="1">
-        <v>6</v>
-      </c>
-      <c r="L366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G367" s="1">
-        <v>48</v>
-      </c>
-      <c r="L367">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G368" s="1">
-        <v>34</v>
-      </c>
-      <c r="L368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G369" s="1">
-        <v>216</v>
-      </c>
-      <c r="L369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G370" s="1">
-        <v>20</v>
-      </c>
-      <c r="L370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G371" s="1">
-        <v>177</v>
-      </c>
-      <c r="L371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G372" s="1">
-        <v>15</v>
-      </c>
-      <c r="L372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>625</v>
-      </c>
-      <c r="G373" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>657</v>
-      </c>
-      <c r="G374" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="L374">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
